--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8702,6 +8702,168 @@
       <c r="G327" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>317.3245454545454</v>
+      </c>
+      <c r="C328" t="n">
+        <v>291.5148148148148</v>
+      </c>
+      <c r="D328" t="n">
+        <v>310.445</v>
+      </c>
+      <c r="E328" t="n">
+        <v>319.4011111111111</v>
+      </c>
+      <c r="F328" t="n">
+        <v>323.2133333333334</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>311.2581818181818</v>
+      </c>
+      <c r="C329" t="n">
+        <v>332.0551851851852</v>
+      </c>
+      <c r="D329" t="n">
+        <v>270.95</v>
+      </c>
+      <c r="E329" t="n">
+        <v>308.3988888888889</v>
+      </c>
+      <c r="F329" t="n">
+        <v>332.7266666666667</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>311.3545454545454</v>
+      </c>
+      <c r="C330" t="n">
+        <v>292.9603703703704</v>
+      </c>
+      <c r="D330" t="n">
+        <v>320.315</v>
+      </c>
+      <c r="E330" t="n">
+        <v>329.2377777777777</v>
+      </c>
+      <c r="F330" t="n">
+        <v>333.4233333333333</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:25+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>298.1472727272728</v>
+      </c>
+      <c r="C331" t="n">
+        <v>315.5148148148148</v>
+      </c>
+      <c r="D331" t="n">
+        <v>314.96</v>
+      </c>
+      <c r="E331" t="n">
+        <v>314.3411111111111</v>
+      </c>
+      <c r="F331" t="n">
+        <v>325.0933333333334</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:32+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>312.5227272727273</v>
+      </c>
+      <c r="C332" t="n">
+        <v>298.1018518518518</v>
+      </c>
+      <c r="D332" t="n">
+        <v>320.885</v>
+      </c>
+      <c r="E332" t="n">
+        <v>328.3788888888889</v>
+      </c>
+      <c r="F332" t="n">
+        <v>335.6766666666666</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>309.9927272727273</v>
+      </c>
+      <c r="C333" t="n">
+        <v>314.1885185185185</v>
+      </c>
+      <c r="D333" t="n">
+        <v>319.295</v>
+      </c>
+      <c r="E333" t="n">
+        <v>320.2288888888889</v>
+      </c>
+      <c r="F333" t="n">
+        <v>329.2166666666666</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B360"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12324,6 +12486,66 @@
       </c>
       <c r="B360" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12714,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1284866031813785</v>
+        <v>-0.1442628124939843</v>
       </c>
       <c r="J2" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K2" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004055197646348985</v>
+        <v>0.005295607970527638</v>
       </c>
       <c r="M2" t="n">
-        <v>11.70828120925245</v>
+        <v>11.56875660424895</v>
       </c>
       <c r="N2" t="n">
-        <v>216.0517370207732</v>
+        <v>212.5623737076995</v>
       </c>
       <c r="O2" t="n">
-        <v>14.69869848050409</v>
+        <v>14.57951898066941</v>
       </c>
       <c r="P2" t="n">
-        <v>317.3494331101894</v>
+        <v>317.5010740870275</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12563,28 +12785,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.3317079860894063</v>
+        <v>-0.1892110475710678</v>
       </c>
       <c r="J3" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K3" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005643964544756797</v>
+        <v>0.001907964468308765</v>
       </c>
       <c r="M3" t="n">
-        <v>23.76240979446509</v>
+        <v>23.62429911444529</v>
       </c>
       <c r="N3" t="n">
-        <v>975.0082838028277</v>
+        <v>973.312385759848</v>
       </c>
       <c r="O3" t="n">
-        <v>31.22512263871557</v>
+        <v>31.19795483296699</v>
       </c>
       <c r="P3" t="n">
-        <v>288.195371551126</v>
+        <v>286.8322290264857</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12640,28 +12862,28 @@
         <v>0.0872</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2081023311638429</v>
+        <v>-0.2222866644783501</v>
       </c>
       <c r="J4" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K4" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01570783347804039</v>
+        <v>0.01781033348397842</v>
       </c>
       <c r="M4" t="n">
-        <v>8.709252582330285</v>
+        <v>8.781908134032257</v>
       </c>
       <c r="N4" t="n">
-        <v>141.2838070982704</v>
+        <v>145.3050354517174</v>
       </c>
       <c r="O4" t="n">
-        <v>11.88628651422598</v>
+        <v>12.05425383222526</v>
       </c>
       <c r="P4" t="n">
-        <v>318.0036965819564</v>
+        <v>318.1395748557101</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12717,28 +12939,28 @@
         <v>0.1029</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2718049825588581</v>
+        <v>-0.2744623871389821</v>
       </c>
       <c r="J5" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K5" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04130960520571592</v>
+        <v>0.04329576106104172</v>
       </c>
       <c r="M5" t="n">
-        <v>6.975848841415612</v>
+        <v>6.959151613001254</v>
       </c>
       <c r="N5" t="n">
-        <v>89.33322268031472</v>
+        <v>88.60472412559891</v>
       </c>
       <c r="O5" t="n">
-        <v>9.451625398856788</v>
+        <v>9.413008239962339</v>
       </c>
       <c r="P5" t="n">
-        <v>327.4974178801602</v>
+        <v>327.5229424570102</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -12794,28 +13016,28 @@
         <v>0.083</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4246528164674437</v>
+        <v>-0.4135306576666223</v>
       </c>
       <c r="J6" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K6" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09992420352641562</v>
+        <v>0.09834802676974874</v>
       </c>
       <c r="M6" t="n">
-        <v>6.398637154618664</v>
+        <v>6.356404550391151</v>
       </c>
       <c r="N6" t="n">
-        <v>83.83013767231665</v>
+        <v>82.68625456780285</v>
       </c>
       <c r="O6" t="n">
-        <v>9.155879950737486</v>
+        <v>9.093198258467856</v>
       </c>
       <c r="P6" t="n">
-        <v>337.7567596278715</v>
+        <v>337.6485070152373</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -12852,7 +13074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23819,6 +24041,228 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-38.79990609401546,174.58978448983828</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-38.799305225956275,174.59033823097909</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-38.79858812284211,174.5903987470359</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-38.79789692497672,174.59056922173312</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-38.79721908410602,174.59079640420688</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-38.799921853831165,174.58985136754274</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-38.799199906778554,174.58989130372032</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-38.798690724795826,174.59083414663615</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-38.797925507168415,174.5906905108283</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-38.797194369834365,174.5906915297391</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-38.79992160348823,174.58985030519625</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-38.799301470600604,174.59032229478865</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-38.79856248183771,174.5902899386636</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-38.7978713706223,174.5904607818644</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-38.79719255999082,174.5906838497265</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:25+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-38.799955914549564,174.58999590686508</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-38.79924287695147,174.59007364877883</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-38.798576393459285,174.59034897298395</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-38.797910070145235,174.59062500343634</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-38.797214200144026,174.59077567918393</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:32+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-38.79991856866973,174.58983742675113</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-38.79928811371681,174.590265613737</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-38.79856100104708,174.5902836548997</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-38.797873601905714,174.59047025029233</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-38.797186706139236,174.59065900911415</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-38.799925141352624,174.58986531835774</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-38.79924632251963,174.59008827020028</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-38.79856513167274,174.59030118329434</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-38.79789477452387,174.5905600962697</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-38.79720348832067,174.59073022377956</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -12559,7 +12559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12650,35 +12650,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12737,27 +12742,28 @@
       <c r="P2" t="n">
         <v>317.5010740870275</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.5932828240274 -38.800730419673116, 174.58322922635185 -38.798361116485225)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5932828240274</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.80073041967312</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5832292263518</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.79836111648522</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5882560251896</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.79954576807917</v>
       </c>
     </row>
@@ -12808,27 +12814,28 @@
       <c r="P3" t="n">
         <v>286.8322290264857</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.5935520009364 -38.80006249637889, 174.58349846039286 -38.797693199244584)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5935520009364</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.80006249637889</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5834984603929</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.79769319924458</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5885252306646</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.79887784781174</v>
       </c>
     </row>
@@ -12885,27 +12892,28 @@
       <c r="P4" t="n">
         <v>318.1395748557101</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.59382117784574 -38.79939456682465, 174.5837676944332 -38.79702527574339)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5938211778457</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.79939456682465</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5837676944332</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.79702527574339</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5887944361395</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.79820992128402</v>
       </c>
     </row>
@@ -12962,27 +12970,28 @@
       <c r="P5" t="n">
         <v>327.5229424570102</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.59409035475537 -38.79872663101049, 174.5840369284729 -38.79635734598158)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.5940903547554</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.79872663101049</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5840369284729</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.79635734598158</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5890636416141</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.79754198849604</v>
       </c>
     </row>
@@ -13039,27 +13048,28 @@
       <c r="P6" t="n">
         <v>337.6485070152373</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.5943595316654 -38.79805868893628, 174.58430616251184 -38.7956894099595)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.5943595316654</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.79805868893628</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.5843061625118</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.7956894099595</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.5893328470886</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.79687404944789</v>
       </c>
     </row>

--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G333"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8862,6 +8862,112 @@
         <v>329.2166666666666</v>
       </c>
       <c r="G333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>323.8054545454545</v>
+      </c>
+      <c r="C334" t="n">
+        <v>326.8648148148148</v>
+      </c>
+      <c r="D334" t="n">
+        <v>325.58</v>
+      </c>
+      <c r="E334" t="n">
+        <v>324.1711111111111</v>
+      </c>
+      <c r="F334" t="n">
+        <v>333.4033333333334</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>330.9745454545454</v>
+      </c>
+      <c r="C335" t="n">
+        <v>286.1422222222222</v>
+      </c>
+      <c r="D335" t="n">
+        <v>318.89</v>
+      </c>
+      <c r="E335" t="n">
+        <v>326.8566666666667</v>
+      </c>
+      <c r="F335" t="n">
+        <v>326.35</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>302.6218181818182</v>
+      </c>
+      <c r="C336" t="n">
+        <v>306.7977777777777</v>
+      </c>
+      <c r="D336" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="E336" t="n">
+        <v>322.5233333333333</v>
+      </c>
+      <c r="F336" t="n">
+        <v>324.54</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>323.7863636363636</v>
+      </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="n">
+        <v>323.455</v>
+      </c>
+      <c r="E337" t="n">
+        <v>336.2466666666667</v>
+      </c>
+      <c r="F337" t="n">
+        <v>336.2</v>
+      </c>
+      <c r="G337" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -8878,7 +8984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12546,6 +12652,46 @@
       </c>
       <c r="B366" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -12719,28 +12865,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1442628124939843</v>
+        <v>-0.1279047979110721</v>
       </c>
       <c r="J2" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005295607970527638</v>
+        <v>0.004237114719753077</v>
       </c>
       <c r="M2" t="n">
-        <v>11.56875660424895</v>
+        <v>11.57478180776326</v>
       </c>
       <c r="N2" t="n">
-        <v>212.5623737076995</v>
+        <v>211.7376108086436</v>
       </c>
       <c r="O2" t="n">
-        <v>14.57951898066941</v>
+        <v>14.55120650697541</v>
       </c>
       <c r="P2" t="n">
-        <v>317.5010740870275</v>
+        <v>317.342827416333</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12791,28 +12937,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1892110475710678</v>
+        <v>-0.1274452538896845</v>
       </c>
       <c r="J3" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001907964468308765</v>
+        <v>0.0008810096906672893</v>
       </c>
       <c r="M3" t="n">
-        <v>23.62429911444529</v>
+        <v>23.53792139320181</v>
       </c>
       <c r="N3" t="n">
-        <v>973.312385759848</v>
+        <v>971.8414574266145</v>
       </c>
       <c r="O3" t="n">
-        <v>31.19795483296699</v>
+        <v>31.17437180484339</v>
       </c>
       <c r="P3" t="n">
-        <v>286.8322290264857</v>
+        <v>286.2378915467357</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12869,28 +13015,28 @@
         <v>0.0872</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2222866644783501</v>
+        <v>-0.1987442014775547</v>
       </c>
       <c r="J4" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01781033348397842</v>
+        <v>0.01459279953854031</v>
       </c>
       <c r="M4" t="n">
-        <v>8.781908134032257</v>
+        <v>8.752572823973642</v>
       </c>
       <c r="N4" t="n">
-        <v>145.3050354517174</v>
+        <v>144.3719359629067</v>
       </c>
       <c r="O4" t="n">
-        <v>12.05425383222526</v>
+        <v>12.01548733771988</v>
       </c>
       <c r="P4" t="n">
-        <v>318.1395748557101</v>
+        <v>317.9108894639946</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12947,28 +13093,28 @@
         <v>0.1029</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2744623871389821</v>
+        <v>-0.2566425056642598</v>
       </c>
       <c r="J5" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04329576106104172</v>
+        <v>0.03864662184699974</v>
       </c>
       <c r="M5" t="n">
-        <v>6.959151613001254</v>
+        <v>6.945075584076108</v>
       </c>
       <c r="N5" t="n">
-        <v>88.60472412559891</v>
+        <v>88.39841834414355</v>
       </c>
       <c r="O5" t="n">
-        <v>9.413008239962339</v>
+        <v>9.402043306863863</v>
       </c>
       <c r="P5" t="n">
-        <v>327.5229424570102</v>
+        <v>327.3486649526931</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13025,28 +13171,28 @@
         <v>0.083</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4135306576666223</v>
+        <v>-0.4059719931626929</v>
       </c>
       <c r="J6" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09834802676974874</v>
+        <v>0.09703808412796378</v>
       </c>
       <c r="M6" t="n">
-        <v>6.356404550391151</v>
+        <v>6.328301768899912</v>
       </c>
       <c r="N6" t="n">
-        <v>82.68625456780285</v>
+        <v>81.99975523211398</v>
       </c>
       <c r="O6" t="n">
-        <v>9.093198258467856</v>
+        <v>9.055371623081738</v>
       </c>
       <c r="P6" t="n">
-        <v>337.6485070152373</v>
+        <v>337.5743915293227</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13084,7 +13230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G333"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24273,6 +24419,150 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-38.79988925720841,174.5897130420717</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-38.799213390855584,174.58994852360073</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-38.798548803995324,174.59023189653817</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-38.79788453316261,174.59051663702303</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-38.797192611948056,174.59068407020533</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-38.799870632516395,174.5896340075901</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-38.79931918319778,174.5903974598884</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-38.7985661838128,174.59030564807443</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-38.79787755644233,174.5904870313367</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-38.79721093550777,174.59076182575697</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-38.799944290186716,174.58994657787056</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-38.79926552279632,174.59016974759592</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-38.798574471033454,174.59034081511206</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-38.79788881386889,174.59053480220277</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-38.797215637622585,174.59078177910177</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-38.79988930680492,174.5897132525364</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-38.79855432449555,174.59025532284454</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-38.797853162396734,174.5903835155942</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-38.797185346590084,174.5906532399192</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G337"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8970,6 +8970,58 @@
       <c r="G337" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>330.8854545454545</v>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="n">
+        <v>319.215</v>
+      </c>
+      <c r="E338" t="n">
+        <v>335.2588888888889</v>
+      </c>
+      <c r="F338" t="n">
+        <v>336.1666666666667</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>307.3081818181818</v>
+      </c>
+      <c r="C339" t="n">
+        <v>311.1133333333333</v>
+      </c>
+      <c r="D339" t="n">
+        <v>313.745</v>
+      </c>
+      <c r="E339" t="n">
+        <v>315.81</v>
+      </c>
+      <c r="F339" t="n">
+        <v>328.89</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8984,7 +9036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B370"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12692,6 +12744,26 @@
       </c>
       <c r="B370" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -12865,28 +12937,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1279047979110721</v>
+        <v>-0.1216118934849181</v>
       </c>
       <c r="J2" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004237114719753077</v>
+        <v>0.00386187091949175</v>
       </c>
       <c r="M2" t="n">
-        <v>11.57478180776326</v>
+        <v>11.57594671824789</v>
       </c>
       <c r="N2" t="n">
-        <v>211.7376108086436</v>
+        <v>211.4081364508416</v>
       </c>
       <c r="O2" t="n">
-        <v>14.55120650697541</v>
+        <v>14.53988089534579</v>
       </c>
       <c r="P2" t="n">
-        <v>317.342827416333</v>
+        <v>317.2815901157782</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12937,28 +13009,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1274452538896845</v>
+        <v>-0.1037995510321608</v>
       </c>
       <c r="J3" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008810096906672893</v>
+        <v>0.0005880101308789465</v>
       </c>
       <c r="M3" t="n">
-        <v>23.53792139320181</v>
+        <v>23.52267707669022</v>
       </c>
       <c r="N3" t="n">
-        <v>971.8414574266145</v>
+        <v>971.0484214107089</v>
       </c>
       <c r="O3" t="n">
-        <v>31.17437180484339</v>
+        <v>31.16164985058893</v>
       </c>
       <c r="P3" t="n">
-        <v>286.2378915467357</v>
+        <v>286.0084992205369</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13015,28 +13087,28 @@
         <v>0.0872</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1987442014775547</v>
+        <v>-0.1937187957054266</v>
       </c>
       <c r="J4" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01459279953854031</v>
+        <v>0.01406115686000753</v>
       </c>
       <c r="M4" t="n">
-        <v>8.752572823973642</v>
+        <v>8.709653139655705</v>
       </c>
       <c r="N4" t="n">
-        <v>144.3719359629067</v>
+        <v>143.4627164777462</v>
       </c>
       <c r="O4" t="n">
-        <v>12.01548733771988</v>
+        <v>11.9775922654658</v>
       </c>
       <c r="P4" t="n">
-        <v>317.9108894639946</v>
+        <v>317.861769015888</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13093,28 +13165,28 @@
         <v>0.1029</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2566425056642598</v>
+        <v>-0.2506145728332068</v>
       </c>
       <c r="J5" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03864662184699974</v>
+        <v>0.03707773491169486</v>
       </c>
       <c r="M5" t="n">
-        <v>6.945075584076108</v>
+        <v>6.959813127339429</v>
       </c>
       <c r="N5" t="n">
-        <v>88.39841834414355</v>
+        <v>88.58685270655536</v>
       </c>
       <c r="O5" t="n">
-        <v>9.402043306863863</v>
+        <v>9.412058898379003</v>
       </c>
       <c r="P5" t="n">
-        <v>327.3486649526931</v>
+        <v>327.289487120612</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13171,28 +13243,28 @@
         <v>0.083</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4059719931626929</v>
+        <v>-0.3992435950578478</v>
       </c>
       <c r="J6" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09703808412796378</v>
+        <v>0.09501253280596733</v>
       </c>
       <c r="M6" t="n">
-        <v>6.328301768899912</v>
+        <v>6.316100742292089</v>
       </c>
       <c r="N6" t="n">
-        <v>81.99975523211398</v>
+        <v>81.72219643593286</v>
       </c>
       <c r="O6" t="n">
-        <v>9.055371623081738</v>
+        <v>9.040032988652909</v>
       </c>
       <c r="P6" t="n">
-        <v>337.5743915293227</v>
+        <v>337.5080970742936</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13230,7 +13302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G337"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24563,6 +24635,76 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-38.799870863967364,174.58963498975814</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-38.79856533950289,174.5903020652262</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-38.79785572852425,174.59039440489346</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-38.79718543318558,174.59065360738384</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-38.79993211552147,174.58989491373293</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-38.79925431149671,174.59012217181464</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-38.798579549873395,174.5903623673286</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-38.797906254181235,174.59060881032678</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-38.79720433695406,174.59073382493483</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G339"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9020,6 +9020,29 @@
         <v>328.89</v>
       </c>
       <c r="G339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="n">
+        <v>308.695</v>
+      </c>
+      <c r="E340" t="n">
+        <v>321.4911111111111</v>
+      </c>
+      <c r="F340" t="n">
+        <v>334.4433333333334</v>
+      </c>
+      <c r="G340" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9036,7 +9059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12764,6 +12787,16 @@
       </c>
       <c r="B372" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
@@ -12940,7 +12973,7 @@
         <v>-0.1216118934849181</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
         <v>293</v>
@@ -13012,7 +13045,7 @@
         <v>-0.1037995510321608</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K3" t="n">
         <v>242</v>
@@ -13087,28 +13120,28 @@
         <v>0.0872</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1937187957054266</v>
+        <v>-0.1966543969467031</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K4" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01406115686000753</v>
+        <v>0.01458214562140892</v>
       </c>
       <c r="M4" t="n">
-        <v>8.709653139655705</v>
+        <v>8.6961946245123</v>
       </c>
       <c r="N4" t="n">
-        <v>143.4627164777462</v>
+        <v>143.0036590517626</v>
       </c>
       <c r="O4" t="n">
-        <v>11.9775922654658</v>
+        <v>11.95841373476276</v>
       </c>
       <c r="P4" t="n">
-        <v>317.861769015888</v>
+        <v>317.8906210828679</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13165,28 +13198,28 @@
         <v>0.1029</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2506145728332068</v>
+        <v>-0.2502352326804197</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03707773491169486</v>
+        <v>0.03720815447988102</v>
       </c>
       <c r="M5" t="n">
-        <v>6.959813127339429</v>
+        <v>6.938047634897038</v>
       </c>
       <c r="N5" t="n">
-        <v>88.58685270655536</v>
+        <v>88.28874101075552</v>
       </c>
       <c r="O5" t="n">
-        <v>9.412058898379003</v>
+        <v>9.396208863725599</v>
       </c>
       <c r="P5" t="n">
-        <v>327.289487120612</v>
+        <v>327.2857396225069</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13243,28 +13276,28 @@
         <v>0.083</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3992435950578478</v>
+        <v>-0.3946962639864111</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K6" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09501253280596733</v>
+        <v>0.09345357600455428</v>
       </c>
       <c r="M6" t="n">
-        <v>6.316100742292089</v>
+        <v>6.315458467871544</v>
       </c>
       <c r="N6" t="n">
-        <v>81.72219643593286</v>
+        <v>81.61715014680229</v>
       </c>
       <c r="O6" t="n">
-        <v>9.040032988652909</v>
+        <v>9.034221059217129</v>
       </c>
       <c r="P6" t="n">
-        <v>337.5080970742936</v>
+        <v>337.4630511105264</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13302,7 +13335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G339"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15780,7 +15813,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-38.797891830278516,174.59054760234753</t>
+          <t>-38.79789183027852,174.59054760234753</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -24705,6 +24738,35 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-38.79859266910872,174.59041803930828</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-38.797891495442684,174.59054618147013</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-38.79718991017109,174.59067260530682</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G340"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9032,7 +9032,9 @@
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
-      <c r="C340" t="inlineStr"/>
+      <c r="C340" t="n">
+        <v>261.4248148148149</v>
+      </c>
       <c r="D340" t="n">
         <v>308.695</v>
       </c>
@@ -9045,6 +9047,31 @@
       <c r="G340" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="n">
+        <v>283.9403703703704</v>
+      </c>
+      <c r="D341" t="n">
+        <v>305.71</v>
+      </c>
+      <c r="E341" t="n">
+        <v>318.6277777777778</v>
+      </c>
+      <c r="F341" t="n">
+        <v>332.6633333333333</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9059,7 +9086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B373"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12797,6 +12824,16 @@
       </c>
       <c r="B373" t="n">
         <v>0.19</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -12973,7 +13010,7 @@
         <v>-0.1216118934849181</v>
       </c>
       <c r="J2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
         <v>293</v>
@@ -13042,28 +13079,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1037995510321608</v>
+        <v>-0.1214352187806058</v>
       </c>
       <c r="J3" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005880101308789465</v>
+        <v>0.000817705264841706</v>
       </c>
       <c r="M3" t="n">
-        <v>23.52267707669022</v>
+        <v>23.44684511099501</v>
       </c>
       <c r="N3" t="n">
-        <v>971.0484214107089</v>
+        <v>965.0383925302401</v>
       </c>
       <c r="O3" t="n">
-        <v>31.16164985058893</v>
+        <v>31.06506707751072</v>
       </c>
       <c r="P3" t="n">
-        <v>286.0084992205369</v>
+        <v>286.1802773507158</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13120,28 +13157,28 @@
         <v>0.0872</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1966543969467031</v>
+        <v>-0.2015843498914554</v>
       </c>
       <c r="J4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01458214562140892</v>
+        <v>0.01540048530282212</v>
       </c>
       <c r="M4" t="n">
-        <v>8.6961946245123</v>
+        <v>8.695181565539137</v>
       </c>
       <c r="N4" t="n">
-        <v>143.0036590517626</v>
+        <v>142.6681903475995</v>
       </c>
       <c r="O4" t="n">
-        <v>11.95841373476276</v>
+        <v>11.94437902729144</v>
       </c>
       <c r="P4" t="n">
-        <v>317.8906210828679</v>
+        <v>317.9391287092121</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13198,28 +13235,28 @@
         <v>0.1029</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2502352326804197</v>
+        <v>-0.2516825510827226</v>
       </c>
       <c r="J5" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03720815447988102</v>
+        <v>0.03785717918185061</v>
       </c>
       <c r="M5" t="n">
-        <v>6.938047634897038</v>
+        <v>6.923210426233265</v>
       </c>
       <c r="N5" t="n">
-        <v>88.28874101075552</v>
+        <v>88.00869160603843</v>
       </c>
       <c r="O5" t="n">
-        <v>9.396208863725599</v>
+        <v>9.381294772366894</v>
       </c>
       <c r="P5" t="n">
-        <v>327.2857396225069</v>
+        <v>327.3000537519941</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13276,28 +13313,28 @@
         <v>0.083</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3946962639864111</v>
+        <v>-0.3913528346294035</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09345357600455428</v>
+        <v>0.09248325315449102</v>
       </c>
       <c r="M6" t="n">
-        <v>6.315458467871544</v>
+        <v>6.309689992854502</v>
       </c>
       <c r="N6" t="n">
-        <v>81.61715014680229</v>
+        <v>81.43800528280494</v>
       </c>
       <c r="O6" t="n">
-        <v>9.034221059217129</v>
+        <v>9.024300819609513</v>
       </c>
       <c r="P6" t="n">
-        <v>337.4630511105264</v>
+        <v>337.4298944743599</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13335,7 +13372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G340"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24745,7 +24782,11 @@
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
-      <c r="C340" t="inlineStr"/>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-38.79938339515956,174.59066995153782</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>-38.79859266910872,174.59041803930828</t>
@@ -24764,6 +24805,39 @@
       <c r="G340" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-38.79932490329105,174.59042173370332</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-38.79860042373314,174.59045094641834</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-38.797898933989735,174.59057774699872</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-38.79719453436559,174.5906922279221</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9072,6 +9072,31 @@
       <c r="G341" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>339.9881818181818</v>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="E342" t="n">
+        <v>330.8377777777778</v>
+      </c>
+      <c r="F342" t="n">
+        <v>336.4133333333334</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9086,7 +9111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B374"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12834,6 +12859,16 @@
       </c>
       <c r="B374" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
@@ -13007,28 +13042,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1216118934849181</v>
+        <v>-0.105129883591835</v>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K2" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00386187091949175</v>
+        <v>0.002877629423241546</v>
       </c>
       <c r="M2" t="n">
-        <v>11.57594671824789</v>
+        <v>11.62319195353689</v>
       </c>
       <c r="N2" t="n">
-        <v>211.4081364508416</v>
+        <v>212.9343715439181</v>
       </c>
       <c r="O2" t="n">
-        <v>14.53988089534579</v>
+        <v>14.59227095225133</v>
       </c>
       <c r="P2" t="n">
-        <v>317.2815901157782</v>
+        <v>317.1190159073774</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13082,7 +13117,7 @@
         <v>-0.1214352187806058</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K3" t="n">
         <v>244</v>
@@ -13157,28 +13192,28 @@
         <v>0.0872</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2015843498914554</v>
+        <v>-0.1980571036830279</v>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K4" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01540048530282212</v>
+        <v>0.0149710821441047</v>
       </c>
       <c r="M4" t="n">
-        <v>8.695181565539137</v>
+        <v>8.678814288321568</v>
       </c>
       <c r="N4" t="n">
-        <v>142.6681903475995</v>
+        <v>142.2454754096519</v>
       </c>
       <c r="O4" t="n">
-        <v>11.94437902729144</v>
+        <v>11.92667075967354</v>
       </c>
       <c r="P4" t="n">
-        <v>317.9391287092121</v>
+        <v>317.9042285377067</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13235,28 +13270,28 @@
         <v>0.1029</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2516825510827226</v>
+        <v>-0.2453193260479162</v>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K5" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03785717918185061</v>
+        <v>0.03613639208282804</v>
       </c>
       <c r="M5" t="n">
-        <v>6.923210426233265</v>
+        <v>6.929360192532007</v>
       </c>
       <c r="N5" t="n">
-        <v>88.00869160603843</v>
+        <v>88.04474250717848</v>
       </c>
       <c r="O5" t="n">
-        <v>9.381294772366894</v>
+        <v>9.383216000240989</v>
       </c>
       <c r="P5" t="n">
-        <v>327.3000537519941</v>
+        <v>327.2367681706855</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13313,28 +13348,28 @@
         <v>0.083</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3913528346294035</v>
+        <v>-0.3856340169262378</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K6" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09248325315449102</v>
+        <v>0.09032175242235396</v>
       </c>
       <c r="M6" t="n">
-        <v>6.309689992854502</v>
+        <v>6.314899166394554</v>
       </c>
       <c r="N6" t="n">
-        <v>81.43800528280494</v>
+        <v>81.43463146340751</v>
       </c>
       <c r="O6" t="n">
-        <v>9.024300819609513</v>
+        <v>9.024113887989641</v>
       </c>
       <c r="P6" t="n">
-        <v>337.4298944743599</v>
+        <v>337.3728694645128</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13372,7 +13407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24841,6 +24876,39 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-38.799847215774015,174.58953463827189</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-38.79856875571002,174.5903165619818</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-38.797867214024976,174.59044314339738</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-38.79718479237891,174.59065088814555</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9084,7 +9084,9 @@
       <c r="B342" t="n">
         <v>339.9881818181818</v>
       </c>
-      <c r="C342" t="inlineStr"/>
+      <c r="C342" t="n">
+        <v>243.057037037037</v>
+      </c>
       <c r="D342" t="n">
         <v>317.9</v>
       </c>
@@ -9095,6 +9097,87 @@
         <v>336.4133333333334</v>
       </c>
       <c r="G342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>310.7718181818182</v>
+      </c>
+      <c r="C343" t="n">
+        <v>203.1807407407408</v>
+      </c>
+      <c r="D343" t="n">
+        <v>292.42</v>
+      </c>
+      <c r="E343" t="n">
+        <v>312.1055555555556</v>
+      </c>
+      <c r="F343" t="n">
+        <v>323.9266666666667</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>324.9554545454546</v>
+      </c>
+      <c r="C344" t="n">
+        <v>236.2596296296296</v>
+      </c>
+      <c r="D344" t="n">
+        <v>319.33</v>
+      </c>
+      <c r="E344" t="n">
+        <v>335.0522222222222</v>
+      </c>
+      <c r="F344" t="n">
+        <v>333.6366666666667</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>305.07</v>
+      </c>
+      <c r="C345" t="n">
+        <v>257.3474074074074</v>
+      </c>
+      <c r="D345" t="n">
+        <v>310.575</v>
+      </c>
+      <c r="E345" t="n">
+        <v>326.3055555555555</v>
+      </c>
+      <c r="F345" t="n">
+        <v>329.0666666666667</v>
+      </c>
+      <c r="G345" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9111,7 +9194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12869,6 +12952,36 @@
       </c>
       <c r="B375" t="n">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -13042,28 +13155,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.105129883591835</v>
+        <v>-0.1066807403073339</v>
       </c>
       <c r="J2" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002877629423241546</v>
+        <v>0.003011745924166975</v>
       </c>
       <c r="M2" t="n">
-        <v>11.62319195353689</v>
+        <v>11.58496471857507</v>
       </c>
       <c r="N2" t="n">
-        <v>212.9343715439181</v>
+        <v>211.4959749581136</v>
       </c>
       <c r="O2" t="n">
-        <v>14.59227095225133</v>
+        <v>14.54290118779996</v>
       </c>
       <c r="P2" t="n">
-        <v>317.1190159073774</v>
+        <v>317.1344544768291</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13114,28 +13227,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1214352187806058</v>
+        <v>-0.2745825041584169</v>
       </c>
       <c r="J3" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K3" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000817705264841706</v>
+        <v>0.004135550903588858</v>
       </c>
       <c r="M3" t="n">
-        <v>23.44684511099501</v>
+        <v>24.05950831966476</v>
       </c>
       <c r="N3" t="n">
-        <v>965.0383925302401</v>
+        <v>991.2765873956831</v>
       </c>
       <c r="O3" t="n">
-        <v>31.06506707751072</v>
+        <v>31.48454521500482</v>
       </c>
       <c r="P3" t="n">
-        <v>286.1802773507158</v>
+        <v>287.6833077917653</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13192,28 +13305,28 @@
         <v>0.0872</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1980571036830279</v>
+        <v>-0.2088265588704332</v>
       </c>
       <c r="J4" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K4" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0149710821441047</v>
+        <v>0.01677451453105561</v>
       </c>
       <c r="M4" t="n">
-        <v>8.678814288321568</v>
+        <v>8.699741818543959</v>
       </c>
       <c r="N4" t="n">
-        <v>142.2454754096519</v>
+        <v>142.3682339045341</v>
       </c>
       <c r="O4" t="n">
-        <v>11.92667075967354</v>
+        <v>11.93181603547985</v>
       </c>
       <c r="P4" t="n">
-        <v>317.9042285377067</v>
+        <v>318.0109012079977</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13270,28 +13383,28 @@
         <v>0.1029</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2453193260479162</v>
+        <v>-0.238678936240331</v>
       </c>
       <c r="J5" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K5" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03613639208282804</v>
+        <v>0.03454326078164605</v>
       </c>
       <c r="M5" t="n">
-        <v>6.929360192532007</v>
+        <v>6.949810730292786</v>
       </c>
       <c r="N5" t="n">
-        <v>88.04474250717848</v>
+        <v>88.1808503297911</v>
       </c>
       <c r="O5" t="n">
-        <v>9.383216000240989</v>
+        <v>9.390465927193981</v>
       </c>
       <c r="P5" t="n">
-        <v>327.2367681706855</v>
+        <v>327.1704425686059</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13348,28 +13461,28 @@
         <v>0.083</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3856340169262378</v>
+        <v>-0.3830159556319831</v>
       </c>
       <c r="J6" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K6" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09032175242235396</v>
+        <v>0.09064530727084774</v>
       </c>
       <c r="M6" t="n">
-        <v>6.314899166394554</v>
+        <v>6.288428240495463</v>
       </c>
       <c r="N6" t="n">
-        <v>81.43463146340751</v>
+        <v>80.80959489754188</v>
       </c>
       <c r="O6" t="n">
-        <v>9.024113887989641</v>
+        <v>8.989415715025192</v>
       </c>
       <c r="P6" t="n">
-        <v>337.3728694645128</v>
+        <v>337.3466603576118</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13407,7 +13520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24887,7 +25000,11 @@
           <t>-38.799847215774015,174.58953463827189</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-38.79943111135693,174.59087244338875</t>
+        </is>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
           <t>-38.79856875571002,174.5903165619818</t>
@@ -24904,6 +25021,117 @@
         </is>
       </c>
       <c r="G342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-38.79992311735434,174.58985672938599</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-38.79953470160432,174.59131205244373</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-38.798634949232934,174.59059745755428</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-38.79791587779558,174.5906496483233</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-38.79721723097195,174.59078854045674</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-38.79988626960933,174.5897003640803</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-38.799448769713564,174.59094738009753</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-38.79856504074704,174.59030079744917</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-38.79785626541919,174.59039668319463</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-38.79719200578025,174.59068149795237</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-38.79993793007837,174.58991958824237</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-38.79939398756466,174.5907149020687</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-38.798587785119324,174.59039731389572</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-38.79787898815717,174.59049310681016</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-38.79720387799927,174.59073187737127</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9180,6 +9180,31 @@
       <c r="G345" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>312.4454545454545</v>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="E346" t="n">
+        <v>323.0188888888889</v>
+      </c>
+      <c r="F346" t="n">
+        <v>323.7366666666667</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9194,7 +9219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12982,6 +13007,16 @@
       </c>
       <c r="B378" t="n">
         <v>0.77</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -13520,7 +13555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25137,6 +25172,39 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-38.799918769416536,174.58983827863267</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-38.79858694081226,174.59039373104542</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-38.79788752648214,174.59052933917476</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-38.79721772456379,174.59079063500698</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -13190,28 +13190,28 @@
         <v>0.0653</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1066807403073339</v>
+        <v>-0.1078874915393279</v>
       </c>
       <c r="J2" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K2" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003011745924166975</v>
+        <v>0.003100035655929423</v>
       </c>
       <c r="M2" t="n">
-        <v>11.58496471857507</v>
+        <v>11.55248944188004</v>
       </c>
       <c r="N2" t="n">
-        <v>211.4959749581136</v>
+        <v>210.7987466577959</v>
       </c>
       <c r="O2" t="n">
-        <v>14.54290118779996</v>
+        <v>14.51890996796233</v>
       </c>
       <c r="P2" t="n">
-        <v>317.1344544768291</v>
+        <v>317.1464525555493</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13265,7 +13265,7 @@
         <v>-0.2745825041584169</v>
       </c>
       <c r="J3" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K3" t="n">
         <v>248</v>
@@ -13340,28 +13340,28 @@
         <v>0.0872</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2088265588704332</v>
+        <v>-0.2099820731492917</v>
       </c>
       <c r="J4" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01677451453105561</v>
+        <v>0.01707422762987432</v>
       </c>
       <c r="M4" t="n">
-        <v>8.699741818543959</v>
+        <v>8.675823974096888</v>
       </c>
       <c r="N4" t="n">
-        <v>142.3682339045341</v>
+        <v>141.8703204984992</v>
       </c>
       <c r="O4" t="n">
-        <v>11.93181603547985</v>
+        <v>11.91093281395287</v>
       </c>
       <c r="P4" t="n">
-        <v>318.0109012079977</v>
+        <v>318.0224241464066</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13418,28 +13418,28 @@
         <v>0.1029</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.238678936240331</v>
+        <v>-0.237435032582767</v>
       </c>
       <c r="J5" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K5" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03454326078164605</v>
+        <v>0.03440757762898705</v>
       </c>
       <c r="M5" t="n">
-        <v>6.949810730292786</v>
+        <v>6.932503908219713</v>
       </c>
       <c r="N5" t="n">
-        <v>88.1808503297911</v>
+        <v>87.9019957024575</v>
       </c>
       <c r="O5" t="n">
-        <v>9.390465927193981</v>
+        <v>9.375606417851461</v>
       </c>
       <c r="P5" t="n">
-        <v>327.1704425686059</v>
+        <v>327.1579743471592</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13496,28 +13496,28 @@
         <v>0.083</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3830159556319831</v>
+        <v>-0.3853288332240364</v>
       </c>
       <c r="J6" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K6" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09064530727084774</v>
+        <v>0.0921405150240141</v>
       </c>
       <c r="M6" t="n">
-        <v>6.288428240495463</v>
+        <v>6.281387807464134</v>
       </c>
       <c r="N6" t="n">
-        <v>80.80959489754188</v>
+        <v>80.59139335137051</v>
       </c>
       <c r="O6" t="n">
-        <v>8.989415715025192</v>
+        <v>8.97727093004163</v>
       </c>
       <c r="P6" t="n">
-        <v>337.3466603576118</v>
+        <v>337.3699004680748</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0274/nzd0274.xlsx
+++ b/data/nzd0274/nzd0274.xlsx
@@ -13181,13 +13181,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0513</v>
+        <v>0.0522</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0653</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1078609019775306</v>
@@ -13258,9 +13258,15 @@
       <c r="E3" t="n">
         <v>0.7499999999972091</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0524</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.2745895898202572</v>
       </c>
@@ -13331,13 +13337,13 @@
         <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.135</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0708</v>
+        <v>0.1016</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0872</v>
+        <v>0.1948</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2100074194665401</v>
@@ -13409,13 +13415,13 @@
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0808</v>
+        <v>0.1183</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1029</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2374312226763677</v>
@@ -13487,13 +13493,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0726</v>
+        <v>0.093</v>
       </c>
       <c r="H6" t="n">
-        <v>0.083</v>
+        <v>0.1315</v>
       </c>
       <c r="I6" t="n">
         <v>-0.3853583817809181</v>
